--- a/вокзалы_база.xlsx
+++ b/вокзалы_база.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0_PROJECTS_(Sony)\(РЖД-2021)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thegalkin/GitHub/Pars-RZD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A3381F-2B27-4710-B05B-7D1076E70957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB70718-BC9B-0D4D-BC0B-64E2853C2464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3F37407C-C215-41D4-A8D7-A23A8A6FB5F0}"/>
+    <workbookView xWindow="57600" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{3F37407C-C215-41D4-A8D7-A23A8A6FB5F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="1091">
   <si>
     <t>http://abakan.dzvr.ru#pa</t>
   </si>
@@ -2261,6 +2261,1050 @@
   </si>
   <si>
     <t>12.5%</t>
+  </si>
+  <si>
+    <t>('Абакан', '1')</t>
+  </si>
+  <si>
+    <t>('Абдулино', '2')</t>
+  </si>
+  <si>
+    <t>('Агрыз', '3')</t>
+  </si>
+  <si>
+    <t>('Адлер', '4')</t>
+  </si>
+  <si>
+    <t>('Аксаково', '5')</t>
+  </si>
+  <si>
+    <t>('Алейская', '6')</t>
+  </si>
+  <si>
+    <t>('Анапа', '7')</t>
+  </si>
+  <si>
+    <t>('Ангарск', '8')</t>
+  </si>
+  <si>
+    <t>('Анжерская', '9')</t>
+  </si>
+  <si>
+    <t>('Арзамас-1', '10')</t>
+  </si>
+  <si>
+    <t>('Арзамас-2', '11')</t>
+  </si>
+  <si>
+    <t>('Армавир-1', '12')</t>
+  </si>
+  <si>
+    <t>('Армавир-2', '13')</t>
+  </si>
+  <si>
+    <t>('Арсеньев', '14')</t>
+  </si>
+  <si>
+    <t>('Архангельск', '15')</t>
+  </si>
+  <si>
+    <t>('Архара', '16')</t>
+  </si>
+  <si>
+    <t>('Арчеда', '17')</t>
+  </si>
+  <si>
+    <t>('Астрахань', '18')</t>
+  </si>
+  <si>
+    <t>('Аткарск', '19')</t>
+  </si>
+  <si>
+    <t>('Ачинск-1', '20')</t>
+  </si>
+  <si>
+    <t>('Аша', '21')</t>
+  </si>
+  <si>
+    <t>('Аэровокзальный комплекс Адлер', '22')</t>
+  </si>
+  <si>
+    <t>('Балаково', '23')</t>
+  </si>
+  <si>
+    <t>('Балашов Пассажирский', '24')</t>
+  </si>
+  <si>
+    <t>('Балтийский', '25')</t>
+  </si>
+  <si>
+    <t>('Барабинск', '26')</t>
+  </si>
+  <si>
+    <t>('Барнаул', '27')</t>
+  </si>
+  <si>
+    <t>('Белая Калитва', '28')</t>
+  </si>
+  <si>
+    <t>('Белгород', '29')</t>
+  </si>
+  <si>
+    <t>('Белово', '30')</t>
+  </si>
+  <si>
+    <t>('Белогорск', '31')</t>
+  </si>
+  <si>
+    <t>('Белорецк', '32')</t>
+  </si>
+  <si>
+    <t>('Белореченская', '33')</t>
+  </si>
+  <si>
+    <t>('Белорусский', '34')</t>
+  </si>
+  <si>
+    <t>('Бердяуш', '35')</t>
+  </si>
+  <si>
+    <t>('Бийск', '36')</t>
+  </si>
+  <si>
+    <t>('Бикин', '37')</t>
+  </si>
+  <si>
+    <t>('Бира', '38')</t>
+  </si>
+  <si>
+    <t>('Биробиджан', '39')</t>
+  </si>
+  <si>
+    <t>('Благовещенск', '40')</t>
+  </si>
+  <si>
+    <t>('Боготол', '41')</t>
+  </si>
+  <si>
+    <t>('Богоявленск', '42')</t>
+  </si>
+  <si>
+    <t>('Болотное', '43')</t>
+  </si>
+  <si>
+    <t>('Борзя', '44')</t>
+  </si>
+  <si>
+    <t>('Борисоглебск', '45')</t>
+  </si>
+  <si>
+    <t>('Брянск-Орловский', '46')</t>
+  </si>
+  <si>
+    <t>('Бугульма', '47')</t>
+  </si>
+  <si>
+    <t>('Бузулук', '48')</t>
+  </si>
+  <si>
+    <t>('Буй', '49')</t>
+  </si>
+  <si>
+    <t>('Бурея', '50')</t>
+  </si>
+  <si>
+    <t>('Валуйки', '51')</t>
+  </si>
+  <si>
+    <t>('Ванино', '52')</t>
+  </si>
+  <si>
+    <t>('Великие Луки', '53')</t>
+  </si>
+  <si>
+    <t>('Великий Устюг', '54')</t>
+  </si>
+  <si>
+    <t>('Вельск', '55')</t>
+  </si>
+  <si>
+    <t>('Верхний Баскунчак', '56')</t>
+  </si>
+  <si>
+    <t>('Верхний Уфалей', '57')</t>
+  </si>
+  <si>
+    <t>('Витебский', '58')</t>
+  </si>
+  <si>
+    <t>('Вихоревка', '59')</t>
+  </si>
+  <si>
+    <t>('Владивосток', '60')</t>
+  </si>
+  <si>
+    <t>('Владикавказ', '61')</t>
+  </si>
+  <si>
+    <t>('Владимир', '62')</t>
+  </si>
+  <si>
+    <t>('Волгоград', '63')</t>
+  </si>
+  <si>
+    <t>('Волгодонская', '64')</t>
+  </si>
+  <si>
+    <t>('Волжский', '65')</t>
+  </si>
+  <si>
+    <t>('Вологда', '66')</t>
+  </si>
+  <si>
+    <t>('Волховстрой-1', '67')</t>
+  </si>
+  <si>
+    <t>('Воркута', '68')</t>
+  </si>
+  <si>
+    <t>('Воронеж', '69')</t>
+  </si>
+  <si>
+    <t>('Выборг', '70')</t>
+  </si>
+  <si>
+    <t>('Вяземский', '71')</t>
+  </si>
+  <si>
+    <t>('Вязовая', '72')</t>
+  </si>
+  <si>
+    <t>('Галич', '73')</t>
+  </si>
+  <si>
+    <t>('Георгиевск', '74')</t>
+  </si>
+  <si>
+    <t>('Глазов', '75')</t>
+  </si>
+  <si>
+    <t>('Нижний Новгород', '76')</t>
+  </si>
+  <si>
+    <t>('Горячий Ключ', '77')</t>
+  </si>
+  <si>
+    <t>('Гродеково', '78')</t>
+  </si>
+  <si>
+    <t>('Грозный', '79')</t>
+  </si>
+  <si>
+    <t>('Грязи Воронежские', '80')</t>
+  </si>
+  <si>
+    <t>('Гудермес', '81')</t>
+  </si>
+  <si>
+    <t>('Дальнереченск', '82')</t>
+  </si>
+  <si>
+    <t>('Данилов', '83')</t>
+  </si>
+  <si>
+    <t>('Дербент', '84')</t>
+  </si>
+  <si>
+    <t>('Дзержинск', '85')</t>
+  </si>
+  <si>
+    <t>('Димитровград', '86')</t>
+  </si>
+  <si>
+    <t>('Ейск', '87')</t>
+  </si>
+  <si>
+    <t>('Екатеринбург', '88')</t>
+  </si>
+  <si>
+    <t>('Елец', '89')</t>
+  </si>
+  <si>
+    <t>('Ершов', '90')</t>
+  </si>
+  <si>
+    <t>('Ессентуки', '91')</t>
+  </si>
+  <si>
+    <t>('Жигулевское море', '92')</t>
+  </si>
+  <si>
+    <t>('Забайкальск', '93')</t>
+  </si>
+  <si>
+    <t>('Завитая', '94')</t>
+  </si>
+  <si>
+    <t>('Залари', '95')</t>
+  </si>
+  <si>
+    <t>('Заозерная', '96')</t>
+  </si>
+  <si>
+    <t>('Заринская', '97')</t>
+  </si>
+  <si>
+    <t>('Зверево', '98')</t>
+  </si>
+  <si>
+    <t>('Зеленый Дол', '99')</t>
+  </si>
+  <si>
+    <t>('Зима', '100')</t>
+  </si>
+  <si>
+    <t>('Златоуст', '101')</t>
+  </si>
+  <si>
+    <t>('Зубова Поляна', '102')</t>
+  </si>
+  <si>
+    <t>('Иваново', '103')</t>
+  </si>
+  <si>
+    <t>('Ижевск', '104')</t>
+  </si>
+  <si>
+    <t>('Инза', '105')</t>
+  </si>
+  <si>
+    <t>('Инская', '106')</t>
+  </si>
+  <si>
+    <t>('Инта', '107')</t>
+  </si>
+  <si>
+    <t>('Иркутск-Пассажирский', '108')</t>
+  </si>
+  <si>
+    <t>('Иркутск-Сортировочный', '109')</t>
+  </si>
+  <si>
+    <t>('Исакогорка', '110')</t>
+  </si>
+  <si>
+    <t>('Исилькуль', '111')</t>
+  </si>
+  <si>
+    <t>('Искитим', '112')</t>
+  </si>
+  <si>
+    <t>('Йошкар-Ола', '113')</t>
+  </si>
+  <si>
+    <t>('Кавказская', '114')</t>
+  </si>
+  <si>
+    <t>('Казанский', '115')</t>
+  </si>
+  <si>
+    <t>('Казань', '116')</t>
+  </si>
+  <si>
+    <t>('Калачинская', '117')</t>
+  </si>
+  <si>
+    <t>('Калининград-Южный', '118')</t>
+  </si>
+  <si>
+    <t>('Калуга-1', '119')</t>
+  </si>
+  <si>
+    <t>('Каменск-Уральский', '120')</t>
+  </si>
+  <si>
+    <t>('Каменская', '121')</t>
+  </si>
+  <si>
+    <t>('Камень-на-Оби', '122')</t>
+  </si>
+  <si>
+    <t>('Камышлов', '123')</t>
+  </si>
+  <si>
+    <t>('Канаш', '124')</t>
+  </si>
+  <si>
+    <t>('Канск-Енисейский', '125')</t>
+  </si>
+  <si>
+    <t>('Карасук 1', '126')</t>
+  </si>
+  <si>
+    <t>('Каргат', '127')</t>
+  </si>
+  <si>
+    <t>('Карталы', '128')</t>
+  </si>
+  <si>
+    <t>('Карымская', '129')</t>
+  </si>
+  <si>
+    <t>('Кемерово', '130')</t>
+  </si>
+  <si>
+    <t>('Киевский', '131')</t>
+  </si>
+  <si>
+    <t>('Кизляр', '132')</t>
+  </si>
+  <si>
+    <t>('Кинель', '133')</t>
+  </si>
+  <si>
+    <t>('Кинешма', '134')</t>
+  </si>
+  <si>
+    <t>('Киров', '135')</t>
+  </si>
+  <si>
+    <t>('Кирсанов', '136')</t>
+  </si>
+  <si>
+    <t>('Киселевск', '137')</t>
+  </si>
+  <si>
+    <t>('Кисловодск', '138')</t>
+  </si>
+  <si>
+    <t>('Княжпогост', '139')</t>
+  </si>
+  <si>
+    <t>('Ковров', '140')</t>
+  </si>
+  <si>
+    <t>('Когалым', '141')</t>
+  </si>
+  <si>
+    <t>('Комсомольск-на-Амуре', '142')</t>
+  </si>
+  <si>
+    <t>('Коноша', '143')</t>
+  </si>
+  <si>
+    <t>('Коршуниха', '144')</t>
+  </si>
+  <si>
+    <t>('Кострома', '145')</t>
+  </si>
+  <si>
+    <t>('Котельниково', '146')</t>
+  </si>
+  <si>
+    <t>('Котельнич', '147')</t>
+  </si>
+  <si>
+    <t>('Котлас-Южный', '148')</t>
+  </si>
+  <si>
+    <t>('Краснодар-1', '149')</t>
+  </si>
+  <si>
+    <t>('Красноуфимск', '150')</t>
+  </si>
+  <si>
+    <t>('Красноярск', '151')</t>
+  </si>
+  <si>
+    <t>('Кропачево', '152')</t>
+  </si>
+  <si>
+    <t>('Крымская', '153')</t>
+  </si>
+  <si>
+    <t>('Кузнецк', '154')</t>
+  </si>
+  <si>
+    <t>('Кулунда', '155')</t>
+  </si>
+  <si>
+    <t>('Купино', '156')</t>
+  </si>
+  <si>
+    <t>('Курган', '157')</t>
+  </si>
+  <si>
+    <t>('Курганная', '158')</t>
+  </si>
+  <si>
+    <t>('Курск', '159')</t>
+  </si>
+  <si>
+    <t>('Курский', '160')</t>
+  </si>
+  <si>
+    <t>('Ладожский', '161')</t>
+  </si>
+  <si>
+    <t>('Лазаревская', '162')</t>
+  </si>
+  <si>
+    <t>('Лена', '163')</t>
+  </si>
+  <si>
+    <t>('Ленинградский', '164')</t>
+  </si>
+  <si>
+    <t>('Ленинск-Кузнецкий', '165')</t>
+  </si>
+  <si>
+    <t>('Липецк', '166')</t>
+  </si>
+  <si>
+    <t>('Лиски', '167')</t>
+  </si>
+  <si>
+    <t>('Лихая', '168')</t>
+  </si>
+  <si>
+    <t>('Лоо', '169')</t>
+  </si>
+  <si>
+    <t>('Магдагачи', '170')</t>
+  </si>
+  <si>
+    <t>('Магнитогорск', '171')</t>
+  </si>
+  <si>
+    <t>('Майкоп', '172')</t>
+  </si>
+  <si>
+    <t>('Мантурово', '173')</t>
+  </si>
+  <si>
+    <t>('Мариинск', '174')</t>
+  </si>
+  <si>
+    <t>('Махачкала', '175')</t>
+  </si>
+  <si>
+    <t>('Междуреченск', '176')</t>
+  </si>
+  <si>
+    <t>('Миасс', '177')</t>
+  </si>
+  <si>
+    <t>('Микунь', '178')</t>
+  </si>
+  <si>
+    <t>('Миллерово', '179')</t>
+  </si>
+  <si>
+    <t>('Минеральные воды', '180')</t>
+  </si>
+  <si>
+    <t>('Мичуринск-Уральский', '181')</t>
+  </si>
+  <si>
+    <t>('Могоча', '182')</t>
+  </si>
+  <si>
+    <t>('Московский', '183')</t>
+  </si>
+  <si>
+    <t>('Московский (Тула)', '184')</t>
+  </si>
+  <si>
+    <t>('Мошково', '185')</t>
+  </si>
+  <si>
+    <t>('Мурманск', '186')</t>
+  </si>
+  <si>
+    <t>('Муром', '187')</t>
+  </si>
+  <si>
+    <t>('Набережные челны', '188')</t>
+  </si>
+  <si>
+    <t>('Навашино', '189')</t>
+  </si>
+  <si>
+    <t>('Называевская', '190')</t>
+  </si>
+  <si>
+    <t>('Нальчик', '191')</t>
+  </si>
+  <si>
+    <t>('Наушки', '192')</t>
+  </si>
+  <si>
+    <t>('Невинномысск', '193')</t>
+  </si>
+  <si>
+    <t>('Нерюнгри', '194')</t>
+  </si>
+  <si>
+    <t>('Нижнекамск', '195')</t>
+  </si>
+  <si>
+    <t>('Нижнеудинск', '196')</t>
+  </si>
+  <si>
+    <t>('Нижний Тагил', '197')</t>
+  </si>
+  <si>
+    <t>('Никель', '198')</t>
+  </si>
+  <si>
+    <t>('Новая Чара', '199')</t>
+  </si>
+  <si>
+    <t>('Великий Новгород', '200')</t>
+  </si>
+  <si>
+    <t>('Новокузнецк', '201')</t>
+  </si>
+  <si>
+    <t>('Новокуйбышевская', '202')</t>
+  </si>
+  <si>
+    <t>('Новороссийск', '203')</t>
+  </si>
+  <si>
+    <t>('Новосибирск-Восточный', '204')</t>
+  </si>
+  <si>
+    <t>('Новосибирск-Главный', '205')</t>
+  </si>
+  <si>
+    <t>('Новосибирск-Западный', '206')</t>
+  </si>
+  <si>
+    <t>('Новосибирск-Южный', '207')</t>
+  </si>
+  <si>
+    <t>('Новотроицк', '208')</t>
+  </si>
+  <si>
+    <t>('Новочеркасск', '209')</t>
+  </si>
+  <si>
+    <t>('Новый Ургал', '210')</t>
+  </si>
+  <si>
+    <t>('Ноябрьск-1', '211')</t>
+  </si>
+  <si>
+    <t>('Ноябрьск-2', '212')</t>
+  </si>
+  <si>
+    <t>('Нурлат', '213')</t>
+  </si>
+  <si>
+    <t>('Няндома', '214')</t>
+  </si>
+  <si>
+    <t>('Облучье', '215')</t>
+  </si>
+  <si>
+    <t>('Озинки', '216')</t>
+  </si>
+  <si>
+    <t>('Олимпийский парк', '217')</t>
+  </si>
+  <si>
+    <t>('Омск', '218')</t>
+  </si>
+  <si>
+    <t>('Орел', '219')</t>
+  </si>
+  <si>
+    <t>('Оренбург', '220')</t>
+  </si>
+  <si>
+    <t>('Орск', '221')</t>
+  </si>
+  <si>
+    <t>('Павелецкий ', '222')</t>
+  </si>
+  <si>
+    <t>('Падунские Пороги', '223')</t>
+  </si>
+  <si>
+    <t>('Пенза-1', '224')</t>
+  </si>
+  <si>
+    <t>('Первоуральск', '225')</t>
+  </si>
+  <si>
+    <t>('Пермь-2', '226')</t>
+  </si>
+  <si>
+    <t>('Петров Вал', '227')</t>
+  </si>
+  <si>
+    <t>('Петровский Завод', '228')</t>
+  </si>
+  <si>
+    <t>('Петрозаводск', '229')</t>
+  </si>
+  <si>
+    <t>('Печора', '230')</t>
+  </si>
+  <si>
+    <t>('Плесецкая', '231')</t>
+  </si>
+  <si>
+    <t>('Поворино', '232')</t>
+  </si>
+  <si>
+    <t>('Потьма', '233')</t>
+  </si>
+  <si>
+    <t>('Прокопьевск', '234')</t>
+  </si>
+  <si>
+    <t>('Прохладная', '235')</t>
+  </si>
+  <si>
+    <t>('Псков', '236')</t>
+  </si>
+  <si>
+    <t>('Пыть-Ях', '237')</t>
+  </si>
+  <si>
+    <t>('Пятигорск', '238')</t>
+  </si>
+  <si>
+    <t>('Ревда', '239')</t>
+  </si>
+  <si>
+    <t>('Рижский ', '240')</t>
+  </si>
+  <si>
+    <t>('Роза Хутор (Красная Поляна)', '241')</t>
+  </si>
+  <si>
+    <t>('Россошь', '242')</t>
+  </si>
+  <si>
+    <t>('Ростов-Главный', '243')</t>
+  </si>
+  <si>
+    <t>('Ростов-Ярославский', '244')</t>
+  </si>
+  <si>
+    <t>('Ртищево', '245')</t>
+  </si>
+  <si>
+    <t>('Рубцовск', '246')</t>
+  </si>
+  <si>
+    <t>('Ружино', '247')</t>
+  </si>
+  <si>
+    <t>('Рузаевка', '248')</t>
+  </si>
+  <si>
+    <t>('Рыбинск', '249')</t>
+  </si>
+  <si>
+    <t>('Рязань-1', '250')</t>
+  </si>
+  <si>
+    <t>('Рязань-2', '251')</t>
+  </si>
+  <si>
+    <t>('Савеловский', '252')</t>
+  </si>
+  <si>
+    <t>('Салават', '253')</t>
+  </si>
+  <si>
+    <t>('Сальск', '254')</t>
+  </si>
+  <si>
+    <t>('Самара', '255')</t>
+  </si>
+  <si>
+    <t>('Саранск', '256')</t>
+  </si>
+  <si>
+    <t>('Сарапул', '257')</t>
+  </si>
+  <si>
+    <t>('Саратов-1', '258')</t>
+  </si>
+  <si>
+    <t>('Свободный', '259')</t>
+  </si>
+  <si>
+    <t>('Северобайкальск', '260')</t>
+  </si>
+  <si>
+    <t>('Северодвинск', '261')</t>
+  </si>
+  <si>
+    <t>('Сергач', '262')</t>
+  </si>
+  <si>
+    <t>('Сердобск', '263')</t>
+  </si>
+  <si>
+    <t>('Серов', '264')</t>
+  </si>
+  <si>
+    <t>('Сибай', '265')</t>
+  </si>
+  <si>
+    <t>('Сибирцево', '266')</t>
+  </si>
+  <si>
+    <t>('Сковородино', '267')</t>
+  </si>
+  <si>
+    <t>('Славгород', '268')</t>
+  </si>
+  <si>
+    <t>('Слюдянка', '269')</t>
+  </si>
+  <si>
+    <t>('Смоленск', '270')</t>
+  </si>
+  <si>
+    <t>('Сосногорск', '271')</t>
+  </si>
+  <si>
+    <t>('Сочи', '272')</t>
+  </si>
+  <si>
+    <t>('Спасск-Дальний', '273')</t>
+  </si>
+  <si>
+    <t>('Ставрополь', '274')</t>
+  </si>
+  <si>
+    <t>('Староминская', '275')</t>
+  </si>
+  <si>
+    <t>('Старый Оскол', '276')</t>
+  </si>
+  <si>
+    <t>('Стерлитамак', '277')</t>
+  </si>
+  <si>
+    <t>('Сургут', '278')</t>
+  </si>
+  <si>
+    <t>('Сызрань-1', '279')</t>
+  </si>
+  <si>
+    <t>('Сызрань-Город', '280')</t>
+  </si>
+  <si>
+    <t>('Сыктывкар', '281')</t>
+  </si>
+  <si>
+    <t>('Таганрог', '282')</t>
+  </si>
+  <si>
+    <t>('Тайга', '283')</t>
+  </si>
+  <si>
+    <t>('Тайшет', '284')</t>
+  </si>
+  <si>
+    <t>('Таксимо', '285')</t>
+  </si>
+  <si>
+    <t>('Таловая', '286')</t>
+  </si>
+  <si>
+    <t>('Тамбов', '287')</t>
+  </si>
+  <si>
+    <t>('Татарская', '288')</t>
+  </si>
+  <si>
+    <t>('Тверь', '289')</t>
+  </si>
+  <si>
+    <t>('Тимашевская', '290')</t>
+  </si>
+  <si>
+    <t>('Тихоокеанская', '291')</t>
+  </si>
+  <si>
+    <t>('Тихорецкая', '292')</t>
+  </si>
+  <si>
+    <t>('Тобольск', '293')</t>
+  </si>
+  <si>
+    <t>('Тогучин', '294')</t>
+  </si>
+  <si>
+    <t>('Тольятти', '295')</t>
+  </si>
+  <si>
+    <t>('Томск-1', '296')</t>
+  </si>
+  <si>
+    <t>('Тоннельная', '297')</t>
+  </si>
+  <si>
+    <t>('Топки', '298')</t>
+  </si>
+  <si>
+    <t>('Троицк', '299')</t>
+  </si>
+  <si>
+    <t>('Туапсе', '300')</t>
+  </si>
+  <si>
+    <t>('Туймазы', '301')</t>
+  </si>
+  <si>
+    <t>('Тулун', '302')</t>
+  </si>
+  <si>
+    <t>('Тында', '303')</t>
+  </si>
+  <si>
+    <t>('Тюмень', '304')</t>
+  </si>
+  <si>
+    <t>('Улан-Удэ', '305')</t>
+  </si>
+  <si>
+    <t>('Ульяновск-Центральный', '306')</t>
+  </si>
+  <si>
+    <t>('Урбах', '307')</t>
+  </si>
+  <si>
+    <t>('Урюпино', '308')</t>
+  </si>
+  <si>
+    <t>('Усинск', '309')</t>
+  </si>
+  <si>
+    <t>('Усолье-Сибирское', '310')</t>
+  </si>
+  <si>
+    <t>('Уссурийск', '311')</t>
+  </si>
+  <si>
+    <t>('Усть-Илимск', '312')</t>
+  </si>
+  <si>
+    <t>('Усть-Катав', '313')</t>
+  </si>
+  <si>
+    <t>('Уфа', '314')</t>
+  </si>
+  <si>
+    <t>('Ухта', '315')</t>
+  </si>
+  <si>
+    <t>('Финляндский', '316')</t>
+  </si>
+  <si>
+    <t>('Хабаровск-1', '317')</t>
+  </si>
+  <si>
+    <t>('Хасан', '318')</t>
+  </si>
+  <si>
+    <t>('Хоста', '319')</t>
+  </si>
+  <si>
+    <t>('Чаны', '320')</t>
+  </si>
+  <si>
+    <t>('Чапаевск', '321')</t>
+  </si>
+  <si>
+    <t>('Чебоксары', '322')</t>
+  </si>
+  <si>
+    <t>('Челябинск', '323')</t>
+  </si>
+  <si>
+    <t>('Черемхово', '324')</t>
+  </si>
+  <si>
+    <t>('Черепаново', '325')</t>
+  </si>
+  <si>
+    <t>('Череповец', '326')</t>
+  </si>
+  <si>
+    <t>('Черкесск', '327')</t>
+  </si>
+  <si>
+    <t>('Чернышевск', '328')</t>
+  </si>
+  <si>
+    <t>('Чертково', '329')</t>
+  </si>
+  <si>
+    <t>('Чистоозерная', '330')</t>
+  </si>
+  <si>
+    <t>('Чита-2', '331')</t>
+  </si>
+  <si>
+    <t>('Чулымская', '332')</t>
+  </si>
+  <si>
+    <t>('Шадринск', '333')</t>
+  </si>
+  <si>
+    <t>('Шарья', '334')</t>
+  </si>
+  <si>
+    <t>('Шахтная', '335')</t>
+  </si>
+  <si>
+    <t>('Шахунья', '336')</t>
+  </si>
+  <si>
+    <t>('Шилка', '337')</t>
+  </si>
+  <si>
+    <t>('Шимановская', '338')</t>
+  </si>
+  <si>
+    <t>('Шумерля', '339')</t>
+  </si>
+  <si>
+    <t>('Шумиха', '340')</t>
+  </si>
+  <si>
+    <t>('Эсто-Садок', '341')</t>
+  </si>
+  <si>
+    <t>('Юрга-1', '342')</t>
+  </si>
+  <si>
+    <t>('Янаул', '343')</t>
+  </si>
+  <si>
+    <t>('Ярославль-Московский', '344')</t>
+  </si>
+  <si>
+    <t>('Ярославль-Главный', '345')</t>
+  </si>
+  <si>
+    <t>('Ярославский', '346')</t>
+  </si>
+  <si>
+    <t>('Веселое', '347')</t>
+  </si>
+  <si>
+    <t>('Шепси', '348')</t>
   </si>
 </sst>
 </file>
@@ -2357,9 +3401,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{D923D33E-9716-4091-914E-C238A884E27A}"/>
-    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2375,9 +3419,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2415,7 +3459,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2521,7 +3565,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2673,21 +3717,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5693CC72-2F38-479D-A02C-830EF91FDDE3}">
   <dimension ref="A1:J358"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D322" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E343" sqref="E343"/>
+      <selection pane="bottomRight" activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F1" s="2" t="s">
         <v>697</v>
       </c>
@@ -2695,7 +3740,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>691</v>
       </c>
@@ -2712,7 +3757,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2725,8 +3770,11 @@
       <c r="D3" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2739,8 +3787,11 @@
       <c r="D4" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2753,8 +3804,11 @@
       <c r="D5" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2767,8 +3821,11 @@
       <c r="D6" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2781,8 +3838,11 @@
       <c r="D7" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2795,8 +3855,11 @@
       <c r="D8" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2809,8 +3872,11 @@
       <c r="D9" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2823,8 +3889,11 @@
       <c r="D10" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2837,8 +3906,11 @@
       <c r="D11" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2851,8 +3923,11 @@
       <c r="D12" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2865,8 +3940,11 @@
       <c r="D13" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2879,8 +3957,11 @@
       <c r="D14" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2893,8 +3974,11 @@
       <c r="D15" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2907,8 +3991,11 @@
       <c r="D16" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2921,8 +4008,11 @@
       <c r="D17" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2935,8 +4025,11 @@
       <c r="D18" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2949,8 +4042,11 @@
       <c r="D19" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2963,8 +4059,11 @@
       <c r="D20" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2977,8 +4076,11 @@
       <c r="D21" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2991,8 +4093,11 @@
       <c r="D22" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3005,8 +4110,11 @@
       <c r="D23" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3019,8 +4127,11 @@
       <c r="D24" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3033,8 +4144,11 @@
       <c r="D25" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3047,8 +4161,11 @@
       <c r="D26" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3061,8 +4178,11 @@
       <c r="D27" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3075,8 +4195,11 @@
       <c r="D28" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3089,8 +4212,11 @@
       <c r="D29" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3103,8 +4229,11 @@
       <c r="D30" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3117,8 +4246,11 @@
       <c r="D31" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3131,8 +4263,11 @@
       <c r="D32" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3145,8 +4280,11 @@
       <c r="D33" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3159,8 +4297,11 @@
       <c r="D34" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3173,8 +4314,11 @@
       <c r="D35" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3187,8 +4331,11 @@
       <c r="D36" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3201,8 +4348,11 @@
       <c r="D37" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3215,8 +4365,11 @@
       <c r="D38" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3229,8 +4382,11 @@
       <c r="D39" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3243,8 +4399,11 @@
       <c r="D40" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3257,8 +4416,11 @@
       <c r="D41" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3271,8 +4433,11 @@
       <c r="D42" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3285,8 +4450,11 @@
       <c r="D43" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3299,8 +4467,11 @@
       <c r="D44" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3313,8 +4484,11 @@
       <c r="D45" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3327,8 +4501,11 @@
       <c r="D46" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3341,8 +4518,11 @@
       <c r="D47" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3355,8 +4535,11 @@
       <c r="D48" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3369,8 +4552,11 @@
       <c r="D49" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3383,8 +4569,11 @@
       <c r="D50" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3397,8 +4586,11 @@
       <c r="D51" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3411,8 +4603,11 @@
       <c r="D52" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3425,8 +4620,11 @@
       <c r="D53" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3439,8 +4637,11 @@
       <c r="D54" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3453,8 +4654,11 @@
       <c r="D55" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3467,8 +4671,11 @@
       <c r="D56" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3481,8 +4688,11 @@
       <c r="D57" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3495,8 +4705,11 @@
       <c r="D58" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3509,11 +4722,14 @@
       <c r="D59" t="s">
         <v>723</v>
       </c>
+      <c r="E59" t="s">
+        <v>799</v>
+      </c>
       <c r="J59" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3526,8 +4742,11 @@
       <c r="D60" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3540,8 +4759,11 @@
       <c r="D61" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3554,8 +4776,11 @@
       <c r="D62" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3568,8 +4793,11 @@
       <c r="D63" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3582,8 +4810,11 @@
       <c r="D64" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3596,8 +4827,11 @@
       <c r="D65" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3610,8 +4844,11 @@
       <c r="D66" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3624,8 +4861,11 @@
       <c r="D67" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3638,8 +4878,11 @@
       <c r="D68" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3652,11 +4895,14 @@
       <c r="D69" t="s">
         <v>732</v>
       </c>
+      <c r="E69" t="s">
+        <v>809</v>
+      </c>
       <c r="J69" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3669,8 +4915,11 @@
       <c r="D70" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3683,8 +4932,11 @@
       <c r="D71" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3697,8 +4949,11 @@
       <c r="D72" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3711,8 +4966,11 @@
       <c r="D73" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3725,8 +4983,11 @@
       <c r="D74" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3739,8 +5000,11 @@
       <c r="D75" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3753,8 +5017,11 @@
       <c r="D76" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3767,8 +5034,11 @@
       <c r="D77" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3781,8 +5051,11 @@
       <c r="D78" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3795,8 +5068,11 @@
       <c r="D79" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3809,8 +5085,11 @@
       <c r="D80" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3823,8 +5102,11 @@
       <c r="D81" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3837,8 +5119,11 @@
       <c r="D82" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3851,8 +5136,11 @@
       <c r="D83" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3865,8 +5153,11 @@
       <c r="D84" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3879,8 +5170,11 @@
       <c r="D85" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3893,8 +5187,11 @@
       <c r="D86" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3907,8 +5204,11 @@
       <c r="D87" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3921,8 +5221,11 @@
       <c r="D88" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3935,8 +5238,11 @@
       <c r="D89" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3949,8 +5255,11 @@
       <c r="D90" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3963,8 +5272,11 @@
       <c r="D91" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3977,8 +5289,11 @@
       <c r="D92" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3991,8 +5306,11 @@
       <c r="D93" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4005,8 +5323,11 @@
       <c r="D94" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4019,8 +5340,11 @@
       <c r="D95" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4033,8 +5357,11 @@
       <c r="D96" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4047,11 +5374,14 @@
       <c r="D97" t="s">
         <v>729</v>
       </c>
+      <c r="E97" t="s">
+        <v>837</v>
+      </c>
       <c r="J97" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4064,8 +5394,11 @@
       <c r="D98" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4078,8 +5411,11 @@
       <c r="D99" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4092,8 +5428,11 @@
       <c r="D100" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4106,8 +5445,11 @@
       <c r="D101" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4120,8 +5462,11 @@
       <c r="D102" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4134,8 +5479,11 @@
       <c r="D103" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4148,8 +5496,11 @@
       <c r="D104" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4162,8 +5513,11 @@
       <c r="D105" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4176,8 +5530,11 @@
       <c r="D106" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4190,8 +5547,11 @@
       <c r="D107" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4204,8 +5564,11 @@
       <c r="D108" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4218,8 +5581,11 @@
       <c r="D109" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4232,8 +5598,11 @@
       <c r="D110" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4246,8 +5615,11 @@
       <c r="D111" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4260,8 +5632,11 @@
       <c r="D112" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4274,8 +5649,11 @@
       <c r="D113" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4288,8 +5666,11 @@
       <c r="D114" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4302,8 +5683,11 @@
       <c r="D115" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4316,8 +5700,11 @@
       <c r="D116" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4330,8 +5717,11 @@
       <c r="D117" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4344,8 +5734,11 @@
       <c r="D118" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4358,8 +5751,11 @@
       <c r="D119" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -4372,8 +5768,11 @@
       <c r="D120" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -4386,8 +5785,11 @@
       <c r="D121" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -4400,8 +5802,11 @@
       <c r="D122" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -4414,8 +5819,11 @@
       <c r="D123" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -4428,8 +5836,11 @@
       <c r="D124" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -4442,8 +5853,11 @@
       <c r="D125" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -4456,8 +5870,11 @@
       <c r="D126" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -4470,8 +5887,11 @@
       <c r="D127" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -4484,8 +5904,11 @@
       <c r="D128" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -4498,8 +5921,11 @@
       <c r="D129" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -4512,8 +5938,11 @@
       <c r="D130" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -4526,8 +5955,11 @@
       <c r="D131" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -4540,8 +5972,11 @@
       <c r="D132" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4554,8 +5989,11 @@
       <c r="D133" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4568,8 +6006,11 @@
       <c r="D134" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4582,8 +6023,11 @@
       <c r="D135" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4596,8 +6040,11 @@
       <c r="D136" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4610,8 +6057,11 @@
       <c r="D137" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4624,8 +6074,11 @@
       <c r="D138" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4638,8 +6091,11 @@
       <c r="D139" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4652,8 +6108,11 @@
       <c r="D140" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4666,8 +6125,11 @@
       <c r="D141" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4680,8 +6142,11 @@
       <c r="D142" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4694,8 +6159,11 @@
       <c r="D143" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4708,8 +6176,11 @@
       <c r="D144" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4722,8 +6193,11 @@
       <c r="D145" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4736,8 +6210,11 @@
       <c r="D146" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4750,8 +6227,11 @@
       <c r="D147" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4764,8 +6244,11 @@
       <c r="D148" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4778,8 +6261,11 @@
       <c r="D149" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4792,8 +6278,11 @@
       <c r="D150" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4806,8 +6295,11 @@
       <c r="D151" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4820,8 +6312,11 @@
       <c r="D152" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4834,8 +6329,11 @@
       <c r="D153" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4848,8 +6346,11 @@
       <c r="D154" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4862,8 +6363,11 @@
       <c r="D155" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4876,8 +6380,11 @@
       <c r="D156" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4890,8 +6397,11 @@
       <c r="D157" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -4904,8 +6414,11 @@
       <c r="D158" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -4918,8 +6431,11 @@
       <c r="D159" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -4932,8 +6448,11 @@
       <c r="D160" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -4946,8 +6465,11 @@
       <c r="D161" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -4960,8 +6482,11 @@
       <c r="D162" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -4974,8 +6499,11 @@
       <c r="D163" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -4988,8 +6516,11 @@
       <c r="D164" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5002,8 +6533,11 @@
       <c r="D165" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5016,8 +6550,11 @@
       <c r="D166" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5030,8 +6567,11 @@
       <c r="D167" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5044,8 +6584,11 @@
       <c r="D168" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5058,8 +6601,11 @@
       <c r="D169" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5072,8 +6618,11 @@
       <c r="D170" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5086,8 +6635,11 @@
       <c r="D171" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5100,8 +6652,11 @@
       <c r="D172" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5114,8 +6669,11 @@
       <c r="D173" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5128,8 +6686,11 @@
       <c r="D174" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5142,8 +6703,11 @@
       <c r="D175" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5156,8 +6720,11 @@
       <c r="D176" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5170,8 +6737,11 @@
       <c r="D177" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5184,8 +6754,11 @@
       <c r="D178" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5198,8 +6771,11 @@
       <c r="D179" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5212,8 +6788,11 @@
       <c r="D180" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5226,8 +6805,11 @@
       <c r="D181" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5240,8 +6822,11 @@
       <c r="D182" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5254,8 +6839,11 @@
       <c r="D183" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -5268,8 +6856,11 @@
       <c r="D184" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5282,8 +6873,11 @@
       <c r="D185" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5296,8 +6890,11 @@
       <c r="D186" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5310,8 +6907,11 @@
       <c r="D187" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5324,8 +6924,11 @@
       <c r="D188" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5338,8 +6941,11 @@
       <c r="D189" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5352,8 +6958,11 @@
       <c r="D190" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5366,8 +6975,11 @@
       <c r="D191" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5380,8 +6992,11 @@
       <c r="D192" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5394,8 +7009,11 @@
       <c r="D193" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5408,8 +7026,11 @@
       <c r="D194" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5422,8 +7043,11 @@
       <c r="D195" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5436,8 +7060,11 @@
       <c r="D196" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5450,8 +7077,11 @@
       <c r="D197" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5464,8 +7094,11 @@
       <c r="D198" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -5478,8 +7111,11 @@
       <c r="D199" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -5492,8 +7128,11 @@
       <c r="D200" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -5506,8 +7145,11 @@
       <c r="D201" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -5520,8 +7162,11 @@
       <c r="D202" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -5534,8 +7179,11 @@
       <c r="D203" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -5548,8 +7196,11 @@
       <c r="D204" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -5562,8 +7213,11 @@
       <c r="D205" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -5576,8 +7230,11 @@
       <c r="D206" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -5590,8 +7247,11 @@
       <c r="D207" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -5604,8 +7264,11 @@
       <c r="D208" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -5618,8 +7281,11 @@
       <c r="D209" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -5632,8 +7298,11 @@
       <c r="D210" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -5646,8 +7315,11 @@
       <c r="D211" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -5660,8 +7332,11 @@
       <c r="D212" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -5674,8 +7349,11 @@
       <c r="D213" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -5688,8 +7366,11 @@
       <c r="D214" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -5702,8 +7383,11 @@
       <c r="D215" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -5716,8 +7400,11 @@
       <c r="D216" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -5730,8 +7417,11 @@
       <c r="D217" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -5744,8 +7434,11 @@
       <c r="D218" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -5758,8 +7451,11 @@
       <c r="D219" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -5772,8 +7468,11 @@
       <c r="D220" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -5786,8 +7485,11 @@
       <c r="D221" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -5800,8 +7502,11 @@
       <c r="D222" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -5814,8 +7519,11 @@
       <c r="D223" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -5828,8 +7536,11 @@
       <c r="D224" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -5842,8 +7553,11 @@
       <c r="D225" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -5856,8 +7570,11 @@
       <c r="D226" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -5870,8 +7587,11 @@
       <c r="D227" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -5884,8 +7604,11 @@
       <c r="D228" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -5898,8 +7621,11 @@
       <c r="D229" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -5912,8 +7638,11 @@
       <c r="D230" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -5926,8 +7655,11 @@
       <c r="D231" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -5940,8 +7672,11 @@
       <c r="D232" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -5954,8 +7689,11 @@
       <c r="D233" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -5968,8 +7706,11 @@
       <c r="D234" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -5982,8 +7723,11 @@
       <c r="D235" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -5996,8 +7740,11 @@
       <c r="D236" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6010,8 +7757,11 @@
       <c r="D237" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6024,8 +7774,11 @@
       <c r="D238" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6038,8 +7791,11 @@
       <c r="D239" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6052,8 +7808,11 @@
       <c r="D240" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6066,8 +7825,11 @@
       <c r="D241" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -6080,8 +7842,11 @@
       <c r="D242" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -6094,8 +7859,11 @@
       <c r="D243" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -6108,8 +7876,11 @@
       <c r="D244" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
@@ -6122,8 +7893,11 @@
       <c r="D245" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
@@ -6136,8 +7910,11 @@
       <c r="D246" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -6150,8 +7927,11 @@
       <c r="D247" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
@@ -6164,8 +7944,11 @@
       <c r="D248" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -6178,8 +7961,11 @@
       <c r="D249" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
@@ -6192,8 +7978,11 @@
       <c r="D250" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -6206,8 +7995,11 @@
       <c r="D251" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -6220,8 +8012,11 @@
       <c r="D252" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
@@ -6234,8 +8029,11 @@
       <c r="D253" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
@@ -6248,8 +8046,11 @@
       <c r="D254" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -6262,8 +8063,11 @@
       <c r="D255" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
@@ -6276,8 +8080,11 @@
       <c r="D256" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -6290,8 +8097,11 @@
       <c r="D257" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -6304,8 +8114,11 @@
       <c r="D258" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>257</v>
       </c>
@@ -6318,8 +8131,11 @@
       <c r="D259" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>258</v>
       </c>
@@ -6332,8 +8148,11 @@
       <c r="D260" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>259</v>
       </c>
@@ -6346,8 +8165,11 @@
       <c r="D261" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>260</v>
       </c>
@@ -6360,8 +8182,11 @@
       <c r="D262" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>261</v>
       </c>
@@ -6374,8 +8199,11 @@
       <c r="D263" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>262</v>
       </c>
@@ -6388,8 +8216,11 @@
       <c r="D264" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>263</v>
       </c>
@@ -6402,8 +8233,11 @@
       <c r="D265" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>264</v>
       </c>
@@ -6416,8 +8250,11 @@
       <c r="D266" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>265</v>
       </c>
@@ -6430,8 +8267,11 @@
       <c r="D267" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>266</v>
       </c>
@@ -6444,8 +8284,11 @@
       <c r="D268" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>267</v>
       </c>
@@ -6458,8 +8301,11 @@
       <c r="D269" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>268</v>
       </c>
@@ -6472,8 +8318,11 @@
       <c r="D270" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>269</v>
       </c>
@@ -6486,8 +8335,11 @@
       <c r="D271" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>270</v>
       </c>
@@ -6500,8 +8352,11 @@
       <c r="D272" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>271</v>
       </c>
@@ -6514,8 +8369,11 @@
       <c r="D273" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>272</v>
       </c>
@@ -6528,8 +8386,11 @@
       <c r="D274" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>273</v>
       </c>
@@ -6542,8 +8403,11 @@
       <c r="D275" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>274</v>
       </c>
@@ -6556,8 +8420,11 @@
       <c r="D276" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>275</v>
       </c>
@@ -6570,8 +8437,11 @@
       <c r="D277" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>276</v>
       </c>
@@ -6584,8 +8454,11 @@
       <c r="D278" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>277</v>
       </c>
@@ -6598,8 +8471,11 @@
       <c r="D279" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>278</v>
       </c>
@@ -6612,8 +8488,11 @@
       <c r="D280" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>279</v>
       </c>
@@ -6626,8 +8505,11 @@
       <c r="D281" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>280</v>
       </c>
@@ -6640,8 +8522,11 @@
       <c r="D282" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>281</v>
       </c>
@@ -6654,8 +8539,11 @@
       <c r="D283" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>282</v>
       </c>
@@ -6668,8 +8556,11 @@
       <c r="D284" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>283</v>
       </c>
@@ -6682,8 +8573,11 @@
       <c r="D285" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>284</v>
       </c>
@@ -6696,8 +8590,11 @@
       <c r="D286" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>285</v>
       </c>
@@ -6710,8 +8607,11 @@
       <c r="D287" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>286</v>
       </c>
@@ -6724,8 +8624,11 @@
       <c r="D288" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>287</v>
       </c>
@@ -6738,8 +8641,11 @@
       <c r="D289" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>288</v>
       </c>
@@ -6752,8 +8658,11 @@
       <c r="D290" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>289</v>
       </c>
@@ -6766,8 +8675,11 @@
       <c r="D291" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>290</v>
       </c>
@@ -6780,8 +8692,11 @@
       <c r="D292" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>291</v>
       </c>
@@ -6794,8 +8709,11 @@
       <c r="D293" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>292</v>
       </c>
@@ -6808,8 +8726,11 @@
       <c r="D294" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>293</v>
       </c>
@@ -6822,8 +8743,11 @@
       <c r="D295" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>294</v>
       </c>
@@ -6836,8 +8760,11 @@
       <c r="D296" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>295</v>
       </c>
@@ -6850,8 +8777,11 @@
       <c r="D297" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>296</v>
       </c>
@@ -6864,8 +8794,11 @@
       <c r="D298" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>297</v>
       </c>
@@ -6878,8 +8811,11 @@
       <c r="D299" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>298</v>
       </c>
@@ -6892,8 +8828,11 @@
       <c r="D300" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>299</v>
       </c>
@@ -6906,8 +8845,11 @@
       <c r="D301" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>300</v>
       </c>
@@ -6920,8 +8862,11 @@
       <c r="D302" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>301</v>
       </c>
@@ -6934,8 +8879,11 @@
       <c r="D303" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>302</v>
       </c>
@@ -6948,8 +8896,11 @@
       <c r="D304" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>303</v>
       </c>
@@ -6962,8 +8913,11 @@
       <c r="D305" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>304</v>
       </c>
@@ -6976,8 +8930,11 @@
       <c r="D306" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>305</v>
       </c>
@@ -6990,8 +8947,11 @@
       <c r="D307" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>306</v>
       </c>
@@ -7004,8 +8964,11 @@
       <c r="D308" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>307</v>
       </c>
@@ -7018,8 +8981,11 @@
       <c r="D309" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>308</v>
       </c>
@@ -7032,8 +8998,11 @@
       <c r="D310" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>309</v>
       </c>
@@ -7046,8 +9015,11 @@
       <c r="D311" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>310</v>
       </c>
@@ -7060,8 +9032,11 @@
       <c r="D312" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>311</v>
       </c>
@@ -7074,8 +9049,11 @@
       <c r="D313" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>312</v>
       </c>
@@ -7088,8 +9066,11 @@
       <c r="D314" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>313</v>
       </c>
@@ -7102,8 +9083,11 @@
       <c r="D315" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>314</v>
       </c>
@@ -7116,8 +9100,11 @@
       <c r="D316" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>315</v>
       </c>
@@ -7130,8 +9117,11 @@
       <c r="D317" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>316</v>
       </c>
@@ -7144,8 +9134,11 @@
       <c r="D318" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>317</v>
       </c>
@@ -7158,8 +9151,11 @@
       <c r="D319" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>318</v>
       </c>
@@ -7172,8 +9168,11 @@
       <c r="D320" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>319</v>
       </c>
@@ -7186,8 +9185,11 @@
       <c r="D321" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>320</v>
       </c>
@@ -7200,8 +9202,11 @@
       <c r="D322" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>321</v>
       </c>
@@ -7214,8 +9219,11 @@
       <c r="D323" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>322</v>
       </c>
@@ -7228,8 +9236,11 @@
       <c r="D324" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>323</v>
       </c>
@@ -7242,8 +9253,11 @@
       <c r="D325" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>324</v>
       </c>
@@ -7256,8 +9270,11 @@
       <c r="D326" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>325</v>
       </c>
@@ -7270,8 +9287,11 @@
       <c r="D327" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>326</v>
       </c>
@@ -7284,8 +9304,11 @@
       <c r="D328" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>327</v>
       </c>
@@ -7298,8 +9321,11 @@
       <c r="D329" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>328</v>
       </c>
@@ -7312,8 +9338,11 @@
       <c r="D330" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>329</v>
       </c>
@@ -7326,8 +9355,11 @@
       <c r="D331" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>330</v>
       </c>
@@ -7340,8 +9372,11 @@
       <c r="D332" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>331</v>
       </c>
@@ -7354,8 +9389,11 @@
       <c r="D333" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>332</v>
       </c>
@@ -7368,8 +9406,11 @@
       <c r="D334" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>333</v>
       </c>
@@ -7382,8 +9423,11 @@
       <c r="D335" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>334</v>
       </c>
@@ -7396,8 +9440,11 @@
       <c r="D336" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E336" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>335</v>
       </c>
@@ -7410,8 +9457,11 @@
       <c r="D337" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E337" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>336</v>
       </c>
@@ -7424,8 +9474,11 @@
       <c r="D338" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E338" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>337</v>
       </c>
@@ -7438,8 +9491,11 @@
       <c r="D339" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E339" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>338</v>
       </c>
@@ -7452,8 +9508,11 @@
       <c r="D340" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E340" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>339</v>
       </c>
@@ -7466,8 +9525,11 @@
       <c r="D341" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E341" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>340</v>
       </c>
@@ -7480,8 +9542,11 @@
       <c r="D342" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E342" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>341</v>
       </c>
@@ -7494,8 +9559,11 @@
       <c r="D343" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E343" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>342</v>
       </c>
@@ -7508,8 +9576,11 @@
       <c r="D344" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E344" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>343</v>
       </c>
@@ -7522,8 +9593,11 @@
       <c r="D345" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E345" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>344</v>
       </c>
@@ -7536,8 +9610,11 @@
       <c r="D346" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E346" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>345</v>
       </c>
@@ -7550,8 +9627,11 @@
       <c r="D347" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E347" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>346</v>
       </c>
@@ -7564,8 +9644,11 @@
       <c r="D348" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E348" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="4">
         <v>347</v>
       </c>
@@ -7578,11 +9661,14 @@
       <c r="D349" t="s">
         <v>702</v>
       </c>
+      <c r="E349" t="s">
+        <v>1089</v>
+      </c>
       <c r="J349" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <v>348</v>
       </c>
@@ -7595,11 +9681,14 @@
       <c r="D350" t="s">
         <v>702</v>
       </c>
+      <c r="E350" t="s">
+        <v>1090</v>
+      </c>
       <c r="J350" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="4">
         <v>349</v>
       </c>
@@ -7616,7 +9705,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="4">
         <v>350</v>
       </c>
@@ -7633,7 +9722,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="4">
         <v>351</v>
       </c>
@@ -7650,7 +9739,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="4">
         <v>352</v>
       </c>
@@ -7667,7 +9756,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="4">
         <v>353</v>
       </c>
@@ -7684,7 +9773,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="4">
         <v>354</v>
       </c>
@@ -7701,10 +9790,10 @@
         <v>727</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
     </row>
   </sheetData>
@@ -7716,13 +9805,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077C6261-27A0-4502-BB95-2F65833A8473}">
   <dimension ref="B1:MQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GF1" workbookViewId="0">
+    <sheetView topLeftCell="GF1" workbookViewId="0">
       <selection activeCell="GS5" sqref="GS5:GS16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -8786,7 +10875,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9850,7 +11939,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="3" spans="2:355" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:355" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -10914,7 +13003,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="4" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>728</v>
       </c>
@@ -11978,7 +14067,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="5" spans="2:355" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:355" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>734</v>
       </c>
@@ -12613,7 +14702,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>734</v>
       </c>
@@ -13248,7 +15337,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="7" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>734</v>
       </c>
@@ -13883,7 +15972,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>734</v>
       </c>
@@ -14518,7 +16607,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="9" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>734</v>
       </c>
@@ -15153,7 +17242,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>734</v>
       </c>
@@ -15788,7 +17877,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="11" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>734</v>
       </c>
@@ -16423,7 +18512,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="12" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>734</v>
       </c>
@@ -17058,7 +19147,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="13" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>734</v>
       </c>
@@ -17678,7 +19767,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="14" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>734</v>
       </c>
@@ -18283,7 +20372,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>734</v>
       </c>
@@ -18834,7 +20923,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="16" spans="2:355" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:355" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>734</v>
       </c>
@@ -19280,7 +21369,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="2:341" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:341" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>734</v>
       </c>
@@ -19576,7 +21665,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="29" spans="2:341" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:341" x14ac:dyDescent="0.2">
       <c r="D29" s="6">
         <v>0.8</v>
       </c>
